--- a/Docs/Lab03/Lab03_WBT_TCs_Form.xlsx
+++ b/Docs/Lab03/Lab03_WBT_TCs_Form.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D387A80B-517B-4F5D-B14A-B7735090DBE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104F4BEA-69A1-4344-8AB2-7321CACEDE5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="117">
   <si>
     <t>VVSS, Info Romana, 2024-2025</t>
   </si>
@@ -457,21 +457,6 @@
     <t>1. Evidenţa pieselor si produselor unei companii</t>
   </si>
   <si>
-    <t>3+1=4</t>
-  </si>
-  <si>
-    <t>11-9+2=4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 - 2(F) - 5(F) - 8 - 9 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 - 2(F) - 5(T) - 6 - 7 - 9 </t>
-  </si>
-  <si>
-    <t>1 - 2(T) - 3(F) - 2(F) - 5(F) - 8 - 9</t>
-  </si>
-  <si>
     <t>F02_P04</t>
   </si>
   <si>
@@ -514,9 +499,6 @@
     <t>p in products</t>
   </si>
   <si>
-    <t>p.getName().contains(searchItem) || (p.getProductId()+"").equals(searchItem)</t>
-  </si>
-  <si>
     <t>isFound==false</t>
   </si>
   <si>
@@ -535,9 +517,6 @@
     <t>Product(0, null, 0.0, 0, 0 ,0 , null)</t>
   </si>
   <si>
-    <t>1, 2, 3, 5, 6, 7, 9</t>
-  </si>
-  <si>
     <t>F02_TC03</t>
   </si>
   <si>
@@ -547,12 +526,6 @@
     <t>nu se poate</t>
   </si>
   <si>
-    <t>1, 2, 5, 6, 7, 9</t>
-  </si>
-  <si>
-    <t>1, 2, 5, 8, 9</t>
-  </si>
-  <si>
     <t>da</t>
   </si>
   <si>
@@ -560,6 +533,51 @@
   </si>
   <si>
     <t>null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - 2(F) - 5(F) -7.5(T)- 8 - 9 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - 2(F) - 5(T) -7.5(T)- 6 - 7 - 9 </t>
+  </si>
+  <si>
+    <t>1 - 2(T) - 3(F) - 2(F) - 5(F)-7.5(T) - 8 - 9</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 5, 6, 7, 9,7.5</t>
+  </si>
+  <si>
+    <t>1, 2, 5, 6, 7, 9, 7.5</t>
+  </si>
+  <si>
+    <t>1, 2, 5, 8, 9, 7.5</t>
+  </si>
+  <si>
+    <t>4+1=5</t>
+  </si>
+  <si>
+    <t>14-11+2=5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>p.getName().contains(searchItem)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (p.getProductId()+"").equals(searchItem)</t>
+  </si>
+  <si>
+    <t>2=2</t>
   </si>
 </sst>
 </file>
@@ -1305,7 +1323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1392,6 +1410,18 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1404,92 +1434,179 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1500,23 +1617,26 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1530,128 +1650,29 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1716,7 +1737,619 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>444499</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>148168</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>343958</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>174626</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F1EE389-FA81-093A-87C5-B1C5FEBA3317}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1053041" y="2741085"/>
+          <a:ext cx="1195917" cy="211666"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>7.5 If(2==2)</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-GB" sz="1100"/>
+          </a:br>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>322791</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>26457</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>89959</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>148166</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2EE9413-96DF-3C1D-7195-54982F2218E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6900333" y="3174999"/>
+          <a:ext cx="375709" cy="306917"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>7.5</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>243416</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>21167</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>433916</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59EE1565-42D9-1719-64EC-55F3106F4916}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6820958" y="2984500"/>
+          <a:ext cx="190500" cy="275167"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>137583</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>179916</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>338666</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>5291</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E130948A-DD52-3924-DACA-608B14856A31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6715125" y="3328458"/>
+          <a:ext cx="201083" cy="10583"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>116417</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>5291</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28D12A24-BE73-1C73-D2E9-BBD390B686FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6768042" y="3381375"/>
+          <a:ext cx="534458" cy="328083"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>89959</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>179916</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>84667</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DAF30B8-2C79-C7E9-188F-CFC47CF08F74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7276042" y="3328458"/>
+          <a:ext cx="100541" cy="275167"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>116416</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>79374</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>338666</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>185207</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="TextBox 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79327015-310C-8F01-4E9C-E7496BB8C937}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6693958" y="3227916"/>
+          <a:ext cx="222250" cy="291041"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>T</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>100542</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>322792</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>153458</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="TextBox 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4A144EE-DD4E-EBE2-3625-0775CB56AAE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7286625" y="3243792"/>
+          <a:ext cx="222250" cy="243416"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>F</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>259291</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>179916</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>68792</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>158749</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="TextBox 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F105B1D9-7BA0-500E-4562-8205F9FDC053}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6836833" y="3513666"/>
+          <a:ext cx="418042" cy="349250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>R5</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>510646</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>26459</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>365125</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>26457</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95757784-7CDD-31CA-D633-9955D376D36B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="6" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7088188" y="2989792"/>
+          <a:ext cx="463020" cy="185207"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2076,7 +2709,7 @@
   <dimension ref="B1:P20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2086,12 +2719,12 @@
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B1" s="10"/>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="42"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="46"/>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B2" s="38" t="s">
@@ -2199,10 +2832,13 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="M19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
     </row>
   </sheetData>
@@ -2219,10 +2855,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B1:T24"/>
+  <dimension ref="B1:U24"/>
   <sheetViews>
-    <sheetView topLeftCell="D4" zoomScale="98" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19:T19"/>
+    <sheetView tabSelected="1" topLeftCell="D3" zoomScale="121" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2233,361 +2869,375 @@
     <col min="20" max="20" width="18.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B1" s="10"/>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="42"/>
-    </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B3" s="46" t="s">
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="46"/>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B3" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="48"/>
-    </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B6" s="40" t="s">
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="50"/>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B6" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="42"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="46"/>
       <c r="F6" s="31"/>
       <c r="G6" s="31"/>
-      <c r="I6" s="40" t="s">
+      <c r="I6" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="Q6" s="40" t="s">
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="Q6" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="R6" s="41"/>
-      <c r="S6" s="41"/>
-      <c r="T6" s="41"/>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="45"/>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B8" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
       <c r="F8" s="33"/>
       <c r="G8" s="33"/>
       <c r="I8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="Q8" s="45" t="s">
+      <c r="Q8" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="R8" s="45"/>
-      <c r="S8" s="45"/>
+      <c r="R8" s="61"/>
+      <c r="S8" s="61"/>
       <c r="T8" s="34">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B9" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
       <c r="F9" s="36"/>
       <c r="G9" s="36"/>
       <c r="I9" s="37"/>
-      <c r="Q9" s="45" t="s">
+      <c r="Q9" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="R9" s="45"/>
-      <c r="S9" s="45"/>
+      <c r="R9" s="61"/>
+      <c r="S9" s="61"/>
       <c r="T9" s="34" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B10" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
       <c r="F10" s="36"/>
       <c r="G10" s="36"/>
-      <c r="I10" s="49" t="e" vm="1">
+      <c r="I10" s="52" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="51"/>
-      <c r="Q10" s="45" t="s">
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="54"/>
+      <c r="Q10" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="R10" s="45" t="s">
+      <c r="R10" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="S10" s="45"/>
+      <c r="S10" s="61"/>
       <c r="T10" s="34" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B11" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="C11" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
       <c r="F11" s="36"/>
       <c r="G11" s="36"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="54"/>
-    </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="I11" s="55"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="57"/>
+      <c r="U11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B12" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
       <c r="F12" s="36"/>
       <c r="G12" s="36"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="54"/>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="I12" s="55"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="57"/>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B13" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="44" t="s">
+      <c r="C13" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
       <c r="F13" s="36"/>
       <c r="G13" s="36"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="54"/>
-      <c r="Q13" s="40" t="s">
+      <c r="I13" s="55"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="57"/>
+      <c r="Q13" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="R13" s="41"/>
-      <c r="S13" s="41"/>
-      <c r="T13" s="41"/>
-    </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="R13" s="45"/>
+      <c r="S13" s="45"/>
+      <c r="T13" s="45"/>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B14" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
       <c r="F14" s="36"/>
       <c r="G14" s="36"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="54"/>
-    </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="I15" s="52"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="54"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="57"/>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="I15" s="55"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="57"/>
       <c r="Q15" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="R15" s="58" t="s">
+      <c r="R15" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="S15" s="58"/>
-      <c r="T15" s="58"/>
-    </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="I16" s="52"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="54"/>
+      <c r="S15" s="62"/>
+      <c r="T15" s="62"/>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="I16" s="55"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="57"/>
       <c r="Q16" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="R16" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="S16" s="43"/>
-      <c r="T16" s="43"/>
-    </row>
-    <row r="17" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I17" s="52"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="54"/>
+      <c r="R16" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="S16" s="47"/>
+      <c r="T16" s="47"/>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="I17" s="55"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="57"/>
       <c r="Q17" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="R17" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="S17" s="43"/>
-      <c r="T17" s="43"/>
-    </row>
-    <row r="18" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I18" s="52"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="53"/>
-      <c r="O18" s="54"/>
+      <c r="R17" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="S17" s="47"/>
+      <c r="T17" s="47"/>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="I18" s="55"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="57"/>
       <c r="Q18" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="R18" s="43" t="s">
+      <c r="R18" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="S18" s="47"/>
+      <c r="T18" s="47"/>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>103</v>
+      </c>
+      <c r="I19" s="55"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="57"/>
+      <c r="Q19" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="R19" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="S18" s="43"/>
-      <c r="T18" s="43"/>
-    </row>
-    <row r="19" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I19" s="52"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="54"/>
-      <c r="Q19" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="R19" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="S19" s="43"/>
-      <c r="T19" s="43"/>
-    </row>
-    <row r="20" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I20" s="52"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="53"/>
-      <c r="O20" s="54"/>
+      <c r="S19" s="47"/>
+      <c r="T19" s="47"/>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="I20" s="55"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="57"/>
       <c r="Q20" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="R20" s="43" t="s">
+      <c r="R20" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="S20" s="43"/>
-      <c r="T20" s="43"/>
-    </row>
-    <row r="21" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I21" s="52"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53"/>
-      <c r="O21" s="54"/>
+      <c r="S20" s="47"/>
+      <c r="T20" s="47"/>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="I21" s="55"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="56"/>
+      <c r="O21" s="57"/>
       <c r="Q21" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="R21" s="43" t="s">
+      <c r="R21" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="S21" s="43"/>
-      <c r="T21" s="43"/>
-    </row>
-    <row r="22" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I22" s="52"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="53"/>
-      <c r="O22" s="54"/>
-    </row>
-    <row r="23" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I23" s="52"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="53"/>
-      <c r="O23" s="54"/>
-    </row>
-    <row r="24" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I24" s="55"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="56"/>
-      <c r="O24" s="57"/>
+      <c r="S21" s="47"/>
+      <c r="T21" s="47"/>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="I22" s="55"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="57"/>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="I23" s="55"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="57"/>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="I24" s="58"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="59"/>
+      <c r="O24" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="C14:E14"/>
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="R20:T20"/>
     <mergeCell ref="R21:T21"/>
@@ -2604,14 +3254,6 @@
     <mergeCell ref="Q6:T6"/>
     <mergeCell ref="R17:T17"/>
     <mergeCell ref="R19:T19"/>
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="C14:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2624,10 +3266,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B1:V16"/>
+  <dimension ref="B1:Z16"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="99" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView zoomScale="99" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2638,163 +3280,184 @@
     <col min="5" max="5" width="19.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.109375" customWidth="1"/>
     <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.77734375" customWidth="1"/>
-    <col min="9" max="9" width="21.33203125" customWidth="1"/>
-    <col min="10" max="10" width="10.77734375" customWidth="1"/>
-    <col min="11" max="11" width="11" customWidth="1"/>
-    <col min="12" max="13" width="8.88671875" customWidth="1"/>
-    <col min="15" max="15" width="9.109375" customWidth="1"/>
-    <col min="16" max="16" width="5.88671875" customWidth="1"/>
-    <col min="17" max="18" width="5.109375" customWidth="1"/>
-    <col min="19" max="19" width="6.44140625" customWidth="1"/>
-    <col min="20" max="20" width="4.109375" customWidth="1"/>
-    <col min="21" max="21" width="7.21875" customWidth="1"/>
-    <col min="22" max="22" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="11.44140625" customWidth="1"/>
+    <col min="12" max="12" width="21.77734375" customWidth="1"/>
+    <col min="13" max="13" width="21.33203125" customWidth="1"/>
+    <col min="14" max="14" width="10.77734375" customWidth="1"/>
+    <col min="15" max="15" width="11" customWidth="1"/>
+    <col min="16" max="17" width="8.88671875" customWidth="1"/>
+    <col min="19" max="19" width="9.109375" customWidth="1"/>
+    <col min="20" max="20" width="5.88671875" customWidth="1"/>
+    <col min="21" max="22" width="5.109375" customWidth="1"/>
+    <col min="23" max="23" width="6.44140625" customWidth="1"/>
+    <col min="24" max="24" width="4.109375" customWidth="1"/>
+    <col min="25" max="25" width="7.21875" customWidth="1"/>
+    <col min="26" max="26" width="5.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B1" s="10"/>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="42"/>
-    </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B3" s="61" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="48"/>
-    </row>
-    <row r="5" spans="2:22" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+    </row>
+    <row r="3" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B3" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="50"/>
+    </row>
+    <row r="5" spans="2:26" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="9"/>
     </row>
-    <row r="6" spans="2:22" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="62" t="s">
+    <row r="6" spans="2:26" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="63" t="s">
+      <c r="D6" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="116" t="s">
+      <c r="E6" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
-      <c r="N6" s="100"/>
-      <c r="O6" s="100"/>
-      <c r="P6" s="102"/>
-      <c r="Q6" s="102"/>
-      <c r="R6" s="102"/>
-      <c r="S6" s="102"/>
-      <c r="T6" s="102"/>
-      <c r="U6" s="102"/>
-      <c r="V6" s="103"/>
-    </row>
-    <row r="7" spans="2:22" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="113" t="s">
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="64"/>
+      <c r="Q6" s="64"/>
+      <c r="R6" s="64"/>
+      <c r="S6" s="64"/>
+      <c r="T6" s="40"/>
+      <c r="U6" s="40"/>
+      <c r="V6" s="40"/>
+      <c r="W6" s="40"/>
+      <c r="X6" s="40"/>
+      <c r="Y6" s="40"/>
+      <c r="Z6" s="41"/>
+    </row>
+    <row r="7" spans="2:26" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="99" t="s">
+      <c r="F7" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="109" t="s">
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="64"/>
+      <c r="O7" s="65"/>
+      <c r="P7" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="M7" s="100"/>
-      <c r="N7" s="100"/>
-      <c r="O7" s="101"/>
-      <c r="P7" s="110" t="s">
+      <c r="Q7" s="64"/>
+      <c r="R7" s="64"/>
+      <c r="S7" s="65"/>
+      <c r="T7" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="Q7" s="111"/>
-      <c r="R7" s="111"/>
-      <c r="S7" s="111"/>
-      <c r="T7" s="111"/>
-      <c r="U7" s="111"/>
-      <c r="V7" s="112"/>
-    </row>
-    <row r="8" spans="2:22" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="62"/>
-      <c r="C8" s="59" t="s">
+      <c r="U7" s="83"/>
+      <c r="V7" s="83"/>
+      <c r="W7" s="83"/>
+      <c r="X7" s="83"/>
+      <c r="Y7" s="83"/>
+      <c r="Z7" s="84"/>
+    </row>
+    <row r="8" spans="2:26" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="72"/>
+      <c r="C8" s="79" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="79" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="68"/>
+      <c r="F8" s="70" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="G8" s="81"/>
+      <c r="H8" s="70" t="s">
+        <v>116</v>
+      </c>
+      <c r="I8" s="65"/>
+      <c r="J8" s="70" t="s">
+        <v>114</v>
+      </c>
+      <c r="K8" s="65"/>
+      <c r="L8" s="70" t="s">
+        <v>115</v>
+      </c>
+      <c r="M8" s="81"/>
+      <c r="N8" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="E8" s="114"/>
-      <c r="F8" s="99" t="s">
-        <v>94</v>
-      </c>
-      <c r="G8" s="108"/>
-      <c r="H8" s="99" t="s">
-        <v>95</v>
-      </c>
-      <c r="I8" s="108"/>
-      <c r="J8" s="99" t="s">
-        <v>96</v>
-      </c>
-      <c r="K8" s="101"/>
-      <c r="L8" s="104" t="s">
+      <c r="O8" s="65"/>
+      <c r="P8" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="M8" s="104" t="s">
+      <c r="Q8" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="N8" s="104" t="s">
+      <c r="R8" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="O8" s="104" t="s">
-        <v>87</v>
-      </c>
-      <c r="P8" s="106">
+      <c r="S8" s="77" t="s">
+        <v>82</v>
+      </c>
+      <c r="T8" s="75">
         <v>0</v>
       </c>
-      <c r="Q8" s="106">
+      <c r="U8" s="75">
         <v>1</v>
       </c>
-      <c r="R8" s="106">
+      <c r="V8" s="75">
         <v>2</v>
       </c>
-      <c r="S8" s="106" t="s">
+      <c r="W8" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="T8" s="106" t="s">
+      <c r="X8" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="U8" s="106" t="s">
+      <c r="Y8" s="75" t="s">
         <v>44</v>
       </c>
-      <c r="V8" s="106" t="s">
+      <c r="Z8" s="75" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="2:22" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B9" s="62"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="115"/>
+    <row r="9" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="72"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="69"/>
       <c r="F9" s="11" t="s">
         <v>46</v>
       </c>
@@ -2811,181 +3474,223 @@
         <v>46</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="L9" s="105"/>
-      <c r="M9" s="105"/>
-      <c r="N9" s="105"/>
-      <c r="O9" s="105"/>
-      <c r="P9" s="107"/>
-      <c r="Q9" s="107"/>
-      <c r="R9" s="107"/>
-      <c r="S9" s="107"/>
-      <c r="T9" s="107"/>
-      <c r="U9" s="107"/>
-      <c r="V9" s="107"/>
-    </row>
-    <row r="10" spans="2:22" ht="31.2" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="O9" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="P9" s="78"/>
+      <c r="Q9" s="78"/>
+      <c r="R9" s="78"/>
+      <c r="S9" s="78"/>
+      <c r="T9" s="76"/>
+      <c r="U9" s="76"/>
+      <c r="V9" s="76"/>
+      <c r="W9" s="76"/>
+      <c r="X9" s="76"/>
+      <c r="Y9" s="76"/>
+      <c r="Z9" s="76"/>
+    </row>
+    <row r="10" spans="2:26" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B10" s="12" t="s">
         <v>48</v>
       </c>
       <c r="C10" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="15" t="s">
         <v>92</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>98</v>
       </c>
       <c r="G10" s="15"/>
       <c r="H10" s="15" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
+      <c r="J10" s="15" t="s">
+        <v>113</v>
+      </c>
       <c r="K10" s="15"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16" t="s">
+        <v>92</v>
+      </c>
       <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
+      <c r="U10" s="17" t="s">
+        <v>92</v>
+      </c>
       <c r="V10" s="17"/>
-    </row>
-    <row r="11" spans="2:22" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="17"/>
+    </row>
+    <row r="11" spans="2:26" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>58</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15" t="s">
-        <v>98</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="I11" s="15"/>
       <c r="J11" s="15" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="K11" s="15"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="N11" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="O11" s="16"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17" t="s">
-        <v>98</v>
-      </c>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="N11" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="O11" s="15"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="R11" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="S11" s="16"/>
+      <c r="T11" s="17"/>
       <c r="U11" s="17"/>
       <c r="V11" s="17"/>
-    </row>
-    <row r="12" spans="2:22" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="W11" s="17"/>
+      <c r="X11" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="17"/>
+    </row>
+    <row r="12" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="E12" s="117" t="s">
-        <v>106</v>
-      </c>
-      <c r="F12" s="118"/>
-      <c r="G12" s="118" t="s">
         <v>98</v>
       </c>
-      <c r="H12" s="118"/>
-      <c r="I12" s="118"/>
-      <c r="J12" s="118" t="s">
-        <v>98</v>
-      </c>
-      <c r="K12" s="118"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
+      <c r="E12" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="H12" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="O12" s="43"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="17" t="s">
+        <v>92</v>
+      </c>
       <c r="U12" s="17"/>
       <c r="V12" s="17"/>
-    </row>
-    <row r="13" spans="2:22" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="W12" s="17"/>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="17"/>
+      <c r="Z12" s="17"/>
+    </row>
+    <row r="13" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="E13" s="117" t="s">
-        <v>107</v>
-      </c>
-      <c r="F13" s="118"/>
-      <c r="G13" s="118" t="s">
         <v>98</v>
       </c>
-      <c r="H13" s="118"/>
-      <c r="I13" s="118"/>
-      <c r="J13" s="118"/>
-      <c r="K13" s="118" t="s">
-        <v>98</v>
-      </c>
-      <c r="L13" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
+      <c r="E13" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="H13" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="P13" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="17" t="s">
+        <v>92</v>
+      </c>
       <c r="U13" s="17"/>
       <c r="V13" s="17"/>
-    </row>
-    <row r="14" spans="2:22" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="W13" s="17"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="17"/>
+    </row>
+    <row r="14" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>19</v>
       </c>
@@ -2998,19 +3703,23 @@
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
       <c r="K14" s="15"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
       <c r="T14" s="17"/>
       <c r="U14" s="17"/>
       <c r="V14" s="17"/>
-    </row>
-    <row r="15" spans="2:22" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="W14" s="17"/>
+      <c r="X14" s="17"/>
+      <c r="Y14" s="17"/>
+      <c r="Z14" s="17"/>
+    </row>
+    <row r="15" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>19</v>
       </c>
@@ -3023,48 +3732,54 @@
       <c r="I15" s="15"/>
       <c r="J15" s="15"/>
       <c r="K15" s="15"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
       <c r="T15" s="17"/>
       <c r="U15" s="17"/>
       <c r="V15" s="17"/>
-    </row>
-    <row r="16" spans="2:22" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="W15" s="17"/>
+      <c r="X15" s="17"/>
+      <c r="Y15" s="17"/>
+      <c r="Z15" s="17"/>
+    </row>
+    <row r="16" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B16" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="E6:O6"/>
+  <mergeCells count="28">
+    <mergeCell ref="T7:Z7"/>
+    <mergeCell ref="Z8:Z9"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="E6:S6"/>
     <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="F7:O7"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="P7:V7"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
     <mergeCell ref="C8:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3079,7 +3794,7 @@
   </sheetPr>
   <dimension ref="B1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="119" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -3100,63 +3815,63 @@
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="10"/>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="42"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="46"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="96" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="89" t="s">
+      <c r="B4" s="97" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="76" t="s">
+      <c r="C4" s="102" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="97" t="s">
+      <c r="D4" s="104" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="91" t="s">
+      <c r="E4" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="91" t="s">
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="93" t="s">
         <v>54</v>
       </c>
-      <c r="L4" s="92"/>
+      <c r="L4" s="99"/>
     </row>
     <row r="5" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="90"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="93" t="s">
-        <v>109</v>
-      </c>
-      <c r="F5" s="120"/>
-      <c r="G5" s="120"/>
-      <c r="H5" s="120"/>
-      <c r="I5" s="120"/>
-      <c r="J5" s="121"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="87" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="89"/>
       <c r="K5" s="2" t="s">
         <v>55</v>
       </c>
@@ -3168,48 +3883,48 @@
       <c r="B6" s="21">
         <v>9</v>
       </c>
-      <c r="C6" s="94" t="s">
+      <c r="C6" s="100" t="s">
         <v>57</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="122" t="s">
-        <v>92</v>
-      </c>
-      <c r="F6" s="123"/>
-      <c r="G6" s="123"/>
-      <c r="H6" s="123"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="124"/>
+      <c r="E6" s="90" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" s="91"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="92"/>
       <c r="K6" s="22" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="L6" s="21" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="21">
         <v>10</v>
       </c>
-      <c r="C7" s="94"/>
+      <c r="C7" s="100"/>
       <c r="D7" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="91" t="s">
-        <v>99</v>
-      </c>
-      <c r="F7" s="125"/>
-      <c r="G7" s="125"/>
-      <c r="H7" s="125"/>
-      <c r="I7" s="125"/>
-      <c r="J7" s="126"/>
+      <c r="E7" s="93" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" s="94"/>
+      <c r="G7" s="94"/>
+      <c r="H7" s="94"/>
+      <c r="I7" s="94"/>
+      <c r="J7" s="95"/>
       <c r="K7" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="L7" s="21" t="s">
         <v>101</v>
-      </c>
-      <c r="L7" s="21" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
@@ -3232,83 +3947,83 @@
       <c r="K9" s="23"/>
     </row>
     <row r="10" spans="2:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="80" t="s">
+      <c r="B10" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="73" t="s">
+      <c r="C10" s="86"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="106" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="74"/>
-      <c r="H10" s="80" t="s">
+      <c r="G10" s="107"/>
+      <c r="H10" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="I10" s="81"/>
-      <c r="J10" s="81"/>
-      <c r="K10" s="81"/>
-      <c r="L10" s="82"/>
-      <c r="M10" s="86" t="s">
+      <c r="I10" s="86"/>
+      <c r="J10" s="86"/>
+      <c r="K10" s="86"/>
+      <c r="L10" s="116"/>
+      <c r="M10" s="121" t="s">
         <v>63</v>
       </c>
-      <c r="N10" s="87"/>
+      <c r="N10" s="122"/>
     </row>
     <row r="11" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="120" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="67" t="s">
+      <c r="C11" s="112" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="67" t="s">
+      <c r="D11" s="112" t="s">
         <v>66</v>
       </c>
-      <c r="E11" s="69" t="s">
+      <c r="E11" s="124" t="s">
         <v>67</v>
       </c>
-      <c r="F11" s="71" t="s">
+      <c r="F11" s="109" t="s">
         <v>68</v>
       </c>
-      <c r="G11" s="75" t="s">
+      <c r="G11" s="108" t="s">
         <v>69</v>
       </c>
-      <c r="H11" s="119" t="s">
+      <c r="H11" s="110" t="s">
         <v>70</v>
       </c>
-      <c r="I11" s="67" t="s">
+      <c r="I11" s="112" t="s">
         <v>64</v>
       </c>
-      <c r="J11" s="67" t="s">
+      <c r="J11" s="112" t="s">
         <v>65</v>
       </c>
-      <c r="K11" s="78" t="s">
+      <c r="K11" s="114" t="s">
         <v>71</v>
       </c>
-      <c r="L11" s="83" t="s">
+      <c r="L11" s="117" t="s">
         <v>72</v>
       </c>
-      <c r="M11" s="85" t="s">
+      <c r="M11" s="119" t="s">
         <v>73</v>
       </c>
-      <c r="N11" s="76" t="s">
+      <c r="N11" s="102" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B12" s="66"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="77"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="79"/>
-      <c r="L12" s="84"/>
-      <c r="M12" s="65"/>
-      <c r="N12" s="71"/>
+      <c r="B12" s="123"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="125"/>
+      <c r="F12" s="126"/>
+      <c r="G12" s="108"/>
+      <c r="H12" s="111"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="113"/>
+      <c r="K12" s="115"/>
+      <c r="L12" s="118"/>
+      <c r="M12" s="120"/>
+      <c r="N12" s="109"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="27">
@@ -3328,10 +4043,10 @@
         <v>1</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="I13" s="27">
         <f>SUM(J13:K13)</f>
@@ -3356,6 +4071,20 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="E5:J5"/>
     <mergeCell ref="E6:J6"/>
@@ -3369,21 +4098,7 @@
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="F10:G10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="J11:J12"/>
     <mergeCell ref="H10:L10"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3391,12 +4106,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3568,15 +4280,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5426D20B-58AE-4BE9-8733-DFB2BC19D8C6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6597AB9C-DC10-4824-8900-518D3B18165A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3600,10 +4316,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6597AB9C-DC10-4824-8900-518D3B18165A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5426D20B-58AE-4BE9-8733-DFB2BC19D8C6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>